--- a/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test_v2.xlsx
+++ b/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Work\Simplus-Grid-Tool\Examples\HybridPowerSystem\HVDC_4Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60179A2C-D119-4441-B585-CCFF4CA6D5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8E72A-9CDB-4891-9634-AE51C0CDA774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="4425" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3615" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.99419999999999997</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -1556,7 +1556,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test_v2.xlsx
+++ b/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Work\Simplus-Grid-Tool\Examples\HybridPowerSystem\HVDC_4Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8E72A-9CDB-4891-9634-AE51C0CDA774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD23A1-908C-4C0F-9DB0-BC806257C2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3615" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="2775" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1555,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test_v2.xlsx
+++ b/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Work\Simplus-Grid-Tool\Examples\HybridPowerSystem\HVDC_4Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD23A1-908C-4C0F-9DB0-BC806257C2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA96602-C139-4B62-9E28-2D018804DBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="2775" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19575" yWindow="3885" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1383,11 +1383,9 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <f xml:space="preserve"> 0.01+0.1</f>
         <v>0.11</v>
       </c>
       <c r="D12">
-        <f xml:space="preserve"> 0.5+0.05</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E12">

--- a/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test_v2.xlsx
+++ b/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Work\Simplus-Grid-Tool\Examples\HybridPowerSystem\HVDC_4Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA96602-C139-4B62-9E28-2D018804DBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7F08B-5164-4155-882B-E228D646DF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19575" yWindow="3885" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14685" yWindow="3390" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1359,10 +1359,10 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.04</v>
       </c>
       <c r="E11">

--- a/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test_v2.xlsx
+++ b/Examples/HybridPowerSystem/HVDC_4Bus/FFL_HVDC_4Bus_test_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Work\Simplus-Grid-Tool\Examples\HybridPowerSystem\HVDC_4Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7F08B-5164-4155-882B-E228D646DF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7741B41A-71B9-4548-AD33-B4DE5AE33322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14685" yWindow="3390" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-0.36199999999999999</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-0.64359999999999995</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.64359999999999995</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0.99419999999999997</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-0.433</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1360,10 +1360,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E11">
         <v>0</v>
